--- a/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_insurance_life.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.138</v>
+        <v>0.09230000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0498</v>
+        <v>0.08460000000000001</v>
       </c>
       <c r="G2">
-        <v>0.09532493702770781</v>
+        <v>0.05566983949885523</v>
       </c>
       <c r="H2">
-        <v>0.09532493702770781</v>
+        <v>0.05566983949885523</v>
       </c>
       <c r="I2">
-        <v>0.06409437502641317</v>
+        <v>0.05521187240084725</v>
       </c>
       <c r="J2">
-        <v>0.0503387442453337</v>
+        <v>0.04538201279046201</v>
       </c>
       <c r="K2">
-        <v>21.92</v>
+        <v>32.267</v>
       </c>
       <c r="L2">
-        <v>0.03680940386230059</v>
+        <v>0.03750101693339378</v>
       </c>
       <c r="M2">
-        <v>24.819</v>
+        <v>19.512</v>
       </c>
       <c r="N2">
-        <v>0.04426668093530953</v>
+        <v>0.03267301863728462</v>
       </c>
       <c r="O2">
-        <v>1.132253649635036</v>
+        <v>0.6047044968543713</v>
       </c>
       <c r="P2">
-        <v>24.051</v>
+        <v>19.512</v>
       </c>
       <c r="Q2">
-        <v>0.04289689121943388</v>
+        <v>0.03267301863728462</v>
       </c>
       <c r="R2">
-        <v>1.097217153284671</v>
+        <v>0.6047044968543713</v>
       </c>
       <c r="S2">
-        <v>0.768</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03094403481203916</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>284.105</v>
+        <v>173.718</v>
       </c>
       <c r="V2">
-        <v>0.5067240979542333</v>
+        <v>0.2908923458195884</v>
       </c>
       <c r="W2">
-        <v>0.008109731678013616</v>
+        <v>0.02323667711598746</v>
       </c>
       <c r="X2">
-        <v>0.1390898853909301</v>
+        <v>0.1189149735414421</v>
       </c>
       <c r="Y2">
-        <v>-0.1309801537129165</v>
+        <v>-0.09567829642545461</v>
       </c>
       <c r="Z2">
-        <v>1.106768295718763</v>
+        <v>6.432340325433815</v>
       </c>
       <c r="AA2">
-        <v>0.008994499068528472</v>
+        <v>-0.1031182973106748</v>
       </c>
       <c r="AB2">
-        <v>0.1334204652112389</v>
+        <v>0.115953348461252</v>
       </c>
       <c r="AC2">
-        <v>-0.1248956883030828</v>
+        <v>-0.218812658606795</v>
       </c>
       <c r="AD2">
-        <v>45.776</v>
+        <v>41.951</v>
       </c>
       <c r="AE2">
-        <v>6.783998358854802</v>
+        <v>0.1352431506950378</v>
       </c>
       <c r="AF2">
-        <v>52.5599983588548</v>
+        <v>42.08624315069504</v>
       </c>
       <c r="AG2">
-        <v>-231.5450016411452</v>
+        <v>-131.631756849305</v>
       </c>
       <c r="AH2">
-        <v>0.08571009001437876</v>
+        <v>0.06583420485527749</v>
       </c>
       <c r="AI2">
-        <v>0.1231432420246257</v>
+        <v>0.09373636170169057</v>
       </c>
       <c r="AJ2">
-        <v>-0.7035169093679259</v>
+        <v>-0.2827396116079455</v>
       </c>
       <c r="AK2">
-        <v>-1.622429347327103</v>
+        <v>-0.4781962261206764</v>
       </c>
       <c r="AL2">
-        <v>1.618</v>
+        <v>4.108</v>
       </c>
       <c r="AM2">
-        <v>1.111</v>
+        <v>4.108</v>
       </c>
       <c r="AN2">
-        <v>1.011736103436844</v>
+        <v>0.794601761530448</v>
       </c>
       <c r="AO2">
-        <v>23.39307787391842</v>
+        <v>11.56158714703018</v>
       </c>
       <c r="AP2">
-        <v>-5.117582089537964</v>
+        <v>-2.493261802240837</v>
       </c>
       <c r="AQ2">
-        <v>34.06840684068406</v>
+        <v>11.56158714703018</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jubilee Life Insurance Company Limited (KASE:JLICL)</t>
+          <t>IGI Holdings Limited (KASE:IGIHL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.138</v>
+        <v>0.09230000000000001</v>
       </c>
       <c r="E3">
-        <v>0.117</v>
+        <v>-0.137</v>
       </c>
       <c r="G3">
-        <v>0.09624413145539906</v>
+        <v>0.1283045977011494</v>
       </c>
       <c r="H3">
-        <v>0.09624413145539906</v>
+        <v>0.1283045977011494</v>
       </c>
       <c r="I3">
-        <v>0.07733654014429306</v>
+        <v>0.115948275862069</v>
       </c>
       <c r="J3">
-        <v>0.04486852716992175</v>
+        <v>0.08148470890908337</v>
       </c>
       <c r="K3">
-        <v>13.5</v>
+        <v>5.93</v>
       </c>
       <c r="L3">
-        <v>0.04527162977867204</v>
+        <v>0.08520114942528736</v>
       </c>
       <c r="M3">
-        <v>8.84</v>
+        <v>2.53</v>
       </c>
       <c r="N3">
-        <v>0.0431640625</v>
+        <v>0.01396247240618102</v>
       </c>
       <c r="O3">
-        <v>0.6548148148148148</v>
+        <v>0.4266441821247892</v>
       </c>
       <c r="P3">
-        <v>8.84</v>
+        <v>2.53</v>
       </c>
       <c r="Q3">
-        <v>0.0431640625</v>
+        <v>0.01396247240618102</v>
       </c>
       <c r="R3">
-        <v>0.6548148148148148</v>
+        <v>0.4266441821247892</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,70 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>93.90000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="V3">
-        <v>0.45849609375</v>
+        <v>0.03096026490066225</v>
       </c>
       <c r="W3">
-        <v>0.1672862453531598</v>
+        <v>0.02323667711598746</v>
       </c>
       <c r="X3">
-        <v>0.141315082697886</v>
+        <v>0.1249474096164819</v>
       </c>
       <c r="Y3">
-        <v>0.02597116265527383</v>
+        <v>-0.1017107325004945</v>
       </c>
       <c r="Z3">
-        <v>19.37468415469516</v>
+        <v>0.251091309210289</v>
       </c>
       <c r="AA3">
-        <v>0.8693135424035923</v>
+        <v>0.02046010224060104</v>
       </c>
       <c r="AB3">
-        <v>0.1338829406450293</v>
+        <v>0.1165130538957476</v>
       </c>
       <c r="AC3">
-        <v>0.735430601758563</v>
+        <v>-0.0960529516551465</v>
       </c>
       <c r="AD3">
-        <v>15.3</v>
+        <v>24.5</v>
       </c>
       <c r="AE3">
-        <v>6.691218644859078</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.99121864485908</v>
+        <v>24.5</v>
       </c>
       <c r="AG3">
-        <v>-71.90878135514093</v>
+        <v>18.89</v>
       </c>
       <c r="AH3">
-        <v>0.09696679958008407</v>
+        <v>0.1191054934370442</v>
       </c>
       <c r="AI3">
-        <v>0.2454617648637262</v>
+        <v>0.07860121912094964</v>
       </c>
       <c r="AJ3">
-        <v>-0.5411101056068368</v>
+        <v>0.09440751661752213</v>
       </c>
       <c r="AK3">
-        <v>16.68889076242971</v>
+        <v>0.06171387500408378</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AM3">
-        <v>-0.507</v>
+        <v>2.84</v>
       </c>
       <c r="AN3">
-        <v>0.5817490494296578</v>
+        <v>2.740492170022371</v>
+      </c>
+      <c r="AO3">
+        <v>2.841549295774648</v>
       </c>
       <c r="AP3">
-        <v>-2.734174196012963</v>
+        <v>2.112975391498882</v>
       </c>
       <c r="AQ3">
-        <v>-44.97041420118343</v>
+        <v>2.841549295774648</v>
       </c>
     </row>
     <row r="4">
@@ -856,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.04679999999999999</v>
+        <v>0.0602</v>
       </c>
       <c r="E4">
-        <v>0.0498</v>
+        <v>0.08460000000000001</v>
       </c>
       <c r="G4">
-        <v>0.09264024704065876</v>
+        <v>0.05413105413105414</v>
       </c>
       <c r="H4">
-        <v>0.09264024704065876</v>
+        <v>0.05413105413105414</v>
       </c>
       <c r="I4">
-        <v>0.06896551724137931</v>
+        <v>0.05508072174738841</v>
       </c>
       <c r="J4">
-        <v>0.04062421344072489</v>
+        <v>0.03865039281705948</v>
       </c>
       <c r="K4">
-        <v>8.08</v>
+        <v>12.3</v>
       </c>
       <c r="L4">
-        <v>0.04158517756047349</v>
+        <v>0.03893637226970561</v>
       </c>
       <c r="M4">
-        <v>9.92</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="N4">
-        <v>0.06635451505016722</v>
+        <v>0.06929555895865239</v>
       </c>
       <c r="O4">
-        <v>1.227722772277228</v>
+        <v>0.7357723577235773</v>
       </c>
       <c r="P4">
-        <v>9.92</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.06635451505016722</v>
+        <v>0.06929555895865239</v>
       </c>
       <c r="R4">
-        <v>1.227722772277228</v>
+        <v>0.7357723577235773</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,55 +907,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>175.9</v>
+        <v>135.9</v>
       </c>
       <c r="V4">
-        <v>1.176588628762542</v>
+        <v>1.040581929555896</v>
       </c>
       <c r="W4">
-        <v>0.1787610619469026</v>
+        <v>0.3738601823708207</v>
       </c>
       <c r="X4">
-        <v>0.1339851545547968</v>
+        <v>0.117250126394748</v>
       </c>
       <c r="Y4">
-        <v>0.04477590739210588</v>
+        <v>0.2566100559760727</v>
       </c>
       <c r="Z4">
-        <v>12.69934640522876</v>
+        <v>-2.244723939458537</v>
       </c>
       <c r="AA4">
-        <v>0.5159009589237153</v>
+        <v>-0.0867594620259297</v>
       </c>
       <c r="AB4">
-        <v>0.1329484011641477</v>
+        <v>0.1158452679447433</v>
       </c>
       <c r="AC4">
-        <v>0.3829525577595676</v>
+        <v>-0.202604729970673</v>
       </c>
       <c r="AD4">
-        <v>2.27</v>
+        <v>3.11</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.27</v>
+        <v>3.11</v>
       </c>
       <c r="AG4">
-        <v>-173.63</v>
+        <v>-132.79</v>
       </c>
       <c r="AH4">
-        <v>0.01495684259076234</v>
+        <v>0.02325929249869119</v>
       </c>
       <c r="AI4">
-        <v>0.06454364515211829</v>
+        <v>0.08335566872152238</v>
       </c>
       <c r="AJ4">
-        <v>7.195607128056363</v>
+        <v>60.63470319634709</v>
       </c>
       <c r="AK4">
-        <v>1.233780999076245</v>
+        <v>1.3468911654326</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.1483660130718954</v>
+        <v>0.1603092783505155</v>
       </c>
       <c r="AP4">
-        <v>-11.34836601307189</v>
+        <v>-6.844845360824742</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IGI Holdings Limited (KASE:IGIHL)</t>
+          <t>IGI Life Insurance Limited (KASE:IGIL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,46 +987,43 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.24</v>
-      </c>
-      <c r="E5">
-        <v>-0.139</v>
+        <v>0.08650000000000001</v>
       </c>
       <c r="G5">
-        <v>0.1792452830188679</v>
+        <v>-0.03028322440087146</v>
       </c>
       <c r="H5">
-        <v>0.1792452830188679</v>
+        <v>-0.03028322440087146</v>
       </c>
       <c r="I5">
-        <v>0.09418238993710693</v>
+        <v>-0.01361655773420479</v>
       </c>
       <c r="J5">
-        <v>0.0713620161946457</v>
+        <v>-0.01361655773420479</v>
       </c>
       <c r="K5">
-        <v>4.05</v>
+        <v>-0.423</v>
       </c>
       <c r="L5">
-        <v>0.06367924528301887</v>
+        <v>-0.009215686274509804</v>
       </c>
       <c r="M5">
-        <v>5.29</v>
+        <v>0.002</v>
       </c>
       <c r="N5">
-        <v>0.02816826411075612</v>
+        <v>3.273322422258593e-05</v>
       </c>
       <c r="O5">
-        <v>1.306172839506173</v>
+        <v>-0.004728132387706856</v>
       </c>
       <c r="P5">
-        <v>5.29</v>
+        <v>0.002</v>
       </c>
       <c r="Q5">
-        <v>0.02816826411075612</v>
+        <v>3.273322422258593e-05</v>
       </c>
       <c r="R5">
-        <v>1.306172839506173</v>
+        <v>-0.004728132387706856</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1032,73 +1032,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>5.41</v>
+        <v>5.36</v>
       </c>
       <c r="V5">
-        <v>0.02880724174653887</v>
+        <v>0.08772504091653029</v>
       </c>
       <c r="W5">
-        <v>0.008109731678013616</v>
+        <v>-0.03021428571428571</v>
       </c>
       <c r="X5">
-        <v>0.144377670101499</v>
+        <v>0.1164268478710277</v>
       </c>
       <c r="Y5">
-        <v>-0.1362679384234854</v>
+        <v>-0.1466411335853134</v>
       </c>
       <c r="Z5">
-        <v>0.1260404280618312</v>
+        <v>7.573007754495958</v>
       </c>
       <c r="AA5">
-        <v>0.008994499068528472</v>
+        <v>-0.1031182973106748</v>
       </c>
       <c r="AB5">
-        <v>0.1338901873716113</v>
+        <v>0.1156943612961202</v>
       </c>
       <c r="AC5">
-        <v>-0.1248956883030828</v>
+        <v>-0.218812658606795</v>
       </c>
       <c r="AD5">
-        <v>27.4</v>
+        <v>0.727</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>27.4</v>
+        <v>0.727</v>
       </c>
       <c r="AG5">
-        <v>21.99</v>
+        <v>-4.633</v>
       </c>
       <c r="AH5">
-        <v>0.1273234200743494</v>
+        <v>0.01175861678554677</v>
       </c>
       <c r="AI5">
-        <v>0.09617409617409618</v>
+        <v>0.05334996697732443</v>
       </c>
       <c r="AJ5">
-        <v>0.1048191048191048</v>
+        <v>-0.08204792179503073</v>
       </c>
       <c r="AK5">
-        <v>0.07867902250527746</v>
+        <v>-0.5604209507681143</v>
       </c>
       <c r="AL5">
-        <v>1.59</v>
+        <v>0.058</v>
       </c>
       <c r="AM5">
-        <v>1.59</v>
+        <v>0.058</v>
       </c>
       <c r="AN5">
-        <v>3.774104683195592</v>
+        <v>-2.991769547325103</v>
       </c>
       <c r="AO5">
-        <v>3.767295597484277</v>
+        <v>-10.77586206896552</v>
       </c>
       <c r="AP5">
-        <v>3.028925619834711</v>
+        <v>19.06584362139918</v>
       </c>
       <c r="AQ5">
-        <v>3.767295597484277</v>
+        <v>-10.77586206896552</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IGI Life Insurance Limited (KASE:IGIL)</t>
+          <t>Askari Life Assurance Company Limited (KASE:ALAC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,118 +1118,109 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0958</v>
+        <v>0.8270000000000001</v>
       </c>
       <c r="G6">
-        <v>-0.01657068062827225</v>
+        <v>-0.8497409326424871</v>
       </c>
       <c r="H6">
-        <v>-0.01657068062827225</v>
+        <v>-0.8497409326424871</v>
       </c>
       <c r="I6">
-        <v>-0.07068062827225131</v>
+        <v>-0.7456210518854961</v>
       </c>
       <c r="J6">
-        <v>-0.07068062827225131</v>
+        <v>-0.7456210518854961</v>
       </c>
       <c r="K6">
-        <v>-1.97</v>
+        <v>-1.44</v>
       </c>
       <c r="L6">
-        <v>-0.05157068062827225</v>
+        <v>-0.7461139896373057</v>
       </c>
       <c r="M6">
-        <v>0.769</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.06252032520325203</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0.3903553299492386</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>8.130081300813008e-05</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0.0005076142131979696</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.768</v>
-      </c>
-      <c r="T6">
-        <v>0.9986996098829649</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>8.34</v>
+        <v>0.548</v>
       </c>
       <c r="V6">
-        <v>0.6780487804878048</v>
+        <v>0.07517146776406036</v>
       </c>
       <c r="W6">
-        <v>-0.1527131782945736</v>
+        <v>-0.6371681415929203</v>
       </c>
       <c r="X6">
-        <v>0.1353699397276455</v>
+        <v>0.1189149735414421</v>
       </c>
       <c r="Y6">
-        <v>-0.2880831180222192</v>
+        <v>-0.7560831151343624</v>
       </c>
       <c r="Z6">
-        <v>19.87513007284079</v>
+        <v>0.8595950952584128</v>
       </c>
       <c r="AA6">
-        <v>-1.404786680541103</v>
+        <v>-0.640932199122191</v>
       </c>
       <c r="AB6">
-        <v>0.1331377417946058</v>
+        <v>0.115953348461252</v>
       </c>
       <c r="AC6">
-        <v>-1.537924422335708</v>
+        <v>-0.7568855475834431</v>
       </c>
       <c r="AD6">
-        <v>0.401</v>
+        <v>0.214</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.1352431506950378</v>
       </c>
       <c r="AF6">
-        <v>0.401</v>
+        <v>0.3492431506950378</v>
       </c>
       <c r="AG6">
-        <v>-7.939</v>
+        <v>-0.1987568493049622</v>
       </c>
       <c r="AH6">
-        <v>0.03157231714038265</v>
+        <v>0.04571698318874204</v>
       </c>
       <c r="AI6">
-        <v>0.02784528852163044</v>
+        <v>0.3331699810902385</v>
       </c>
       <c r="AJ6">
-        <v>-1.820454024306351</v>
+        <v>-0.0280284916313272</v>
       </c>
       <c r="AK6">
-        <v>-1.309849859759116</v>
+        <v>-0.3973204811076563</v>
       </c>
       <c r="AL6">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>-0.191866028708134</v>
-      </c>
-      <c r="AO6">
-        <v>-96.42857142857143</v>
+        <v>-0.1643625192012289</v>
       </c>
       <c r="AP6">
-        <v>3.798564593301436</v>
-      </c>
-      <c r="AQ6">
-        <v>-96.42857142857143</v>
+        <v>0.152655030188143</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1231,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Askari Life Assurance Company Limited (KASE:ALAC)</t>
+          <t>Jubilee Life Insurance Company Limited (KASE:JLICL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1249,109 +1240,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.556</v>
+        <v>0.157</v>
+      </c>
+      <c r="E7">
+        <v>0.115</v>
       </c>
       <c r="G7">
-        <v>-0.5841666666666666</v>
+        <v>0.05830016389604308</v>
       </c>
       <c r="H7">
-        <v>-0.5841666666666666</v>
+        <v>0.05830016389604308</v>
       </c>
       <c r="I7">
-        <v>-1.319629952332621</v>
+        <v>0.05642706626082884</v>
       </c>
       <c r="J7">
-        <v>-1.319629952332621</v>
+        <v>0.03979989073597128</v>
       </c>
       <c r="K7">
-        <v>-1.74</v>
+        <v>15.9</v>
       </c>
       <c r="L7">
-        <v>-1.45</v>
+        <v>0.03722781549988293</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>7.93</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.03654377880184332</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.4987421383647798</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>7.93</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.03654377880184332</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.4987421383647798</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>0.555</v>
+        <v>26.3</v>
       </c>
       <c r="V7">
-        <v>0.08851674641148327</v>
+        <v>0.1211981566820277</v>
       </c>
       <c r="W7">
-        <v>-1.755802219979818</v>
+        <v>0.235207100591716</v>
       </c>
       <c r="X7">
-        <v>0.1390898853909301</v>
+        <v>0.1198715667467763</v>
       </c>
       <c r="Y7">
-        <v>-1.894892105370749</v>
+        <v>0.1153355338449397</v>
       </c>
       <c r="Z7">
-        <v>1.428946162905419</v>
+        <v>-38.82727272727268</v>
       </c>
       <c r="AA7">
-        <v>-1.885680156840759</v>
+        <v>-1.54532121212121</v>
       </c>
       <c r="AB7">
-        <v>0.1334204652112389</v>
+        <v>0.1160482443602625</v>
       </c>
       <c r="AC7">
-        <v>-2.019100622051997</v>
+        <v>-1.661369456481473</v>
       </c>
       <c r="AD7">
-        <v>0.405</v>
+        <v>13.4</v>
       </c>
       <c r="AE7">
-        <v>0.09277971399572429</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.4977797139957243</v>
+        <v>13.4</v>
       </c>
       <c r="AG7">
-        <v>-0.05722028600427576</v>
+        <v>-12.9</v>
       </c>
       <c r="AH7">
-        <v>0.07355140607876452</v>
+        <v>0.05815972222222222</v>
       </c>
       <c r="AI7">
-        <v>0.1805001724646438</v>
+        <v>0.1570926143024619</v>
       </c>
       <c r="AJ7">
-        <v>-0.009210094134735506</v>
+        <v>-0.06320431161195493</v>
       </c>
       <c r="AK7">
-        <v>-0.02597639956493027</v>
+        <v>-0.2186440677966101</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN7">
-        <v>-0.2655737704918033</v>
+        <v>0.5153846153846154</v>
+      </c>
+      <c r="AO7">
+        <v>19.91735537190083</v>
       </c>
       <c r="AP7">
-        <v>0.03752149901919721</v>
+        <v>-0.4961538461538462</v>
+      </c>
+      <c r="AQ7">
+        <v>19.91735537190083</v>
       </c>
     </row>
   </sheetData>
